--- a/data/PEMMPST.xlsx
+++ b/data/PEMMPST.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rws\Pemm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpaces\Rws\Pemm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC99B49-F190-4D31-B0AE-E4D0938ABE6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A933101D-04E0-4080-B115-2A3B696DE3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEMMPR" sheetId="5" r:id="rId1"/>
     <sheet name="PEMMPST" sheetId="6" r:id="rId2"/>
     <sheet name="PRE-POST" sheetId="3" r:id="rId3"/>
     <sheet name="Thesis sub enablers" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="257">
   <si>
     <t>Het proces is niet end-to-end^ ingericht. Managers gebruiken de bestaande procesinrichting vooral als context om tot functionele verbeteringen van het proces te komen.</t>
   </si>
@@ -639,6 +642,171 @@
   </si>
   <si>
     <t>OAUP4</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>Enabler</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Process Condition Descriptions</t>
+  </si>
+  <si>
+    <t>C1*</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>(P1) The process has not been designed on an end-to-end basis. Functional managers use the legacy design primarily as a context for functional performance improvement.</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>(P2)The process has been redesigned from end to end in order to optimize its performance</t>
+  </si>
+  <si>
+    <t>(P3)  The process has been designed to fit with other enterprise processes and with the enterprise’s IT systems in order to optimize the enterprise’s performance.</t>
+  </si>
+  <si>
+    <t>(P4) The process has been designed to fit with customer and supplier processes in order to optimize inter enterprise performance.</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>(P2)The needs of the process’s customers are known and agreed upon.</t>
+  </si>
+  <si>
+    <t>(P3)The process owner and the owners of the other processes with which the process interfaces have established mutual performance expectations.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>(P3)The process documentation describes the process’s interfaces with, and expectations of, other processes and links the process to the enterprise’s system and data architecture.</t>
+  </si>
+  <si>
+    <t>Performers</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>(P1) Performers can name the process they execute and identify the key metrics of its performance.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>(P2) Performers can describe the process’s overall flow; how their work affects customers, other employees in the process, and the process’s performance; and the required and actual performance levels.</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>(P2)Enterprise leadership has created an official process owner role and has filled the position with a senior manager who has clout and credibility</t>
+  </si>
+  <si>
+    <t>Activities</t>
+  </si>
+  <si>
+    <t>(P3) The process owner works with other process owners to integrate processes to achieve the enterprise’s goals.</t>
+  </si>
+  <si>
+    <t>Authority</t>
+  </si>
+  <si>
+    <t>(P3) The process owner controls the IT systems that support the process and any projects that change the process and has some influence over personnel assignments and evaluations as well as the process’s budget.</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>(P1) Fragmented legacy IT systems support the process.</t>
+  </si>
+  <si>
+    <t>(P2) An IT system constructed from functional component supports the process.</t>
+  </si>
+  <si>
+    <t>(P3) An integrated IT system, designed with the process in mind and adhering to enterprise standards, supports the process.</t>
+  </si>
+  <si>
+    <t>(P4) An IT system with a modular architecture that adheres to industry standards for interenterprise communication supports the process.</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>(P1) Functional managers reward the attainment of functional excellence and the resolution of functional problems in a process context</t>
+  </si>
+  <si>
+    <t>(P2) The process’s design drives role definitions, job descriptions, and competency profiles. Job training is based on process documentation.</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>(P1) The process has some basic cost and quality metrics</t>
+  </si>
+  <si>
+    <t>(P4)  The process’s metrics have been derived from interenterprise goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*C1: All changes have the same direction (increase or decrease in maturity ratings) , C2: A change in median is observed, </t>
+  </si>
+  <si>
+    <t>C2**</t>
   </si>
 </sst>
 </file>
@@ -648,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,8 +903,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,8 +956,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1164,6 +1356,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1171,7 +1437,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1287,17 +1553,20 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1311,20 +1580,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2054,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21669FFB-D751-42CC-9C6C-6489036EF055}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AP25" sqref="AP25"/>
     </sheetView>
   </sheetViews>
@@ -6980,16 +7297,16 @@
   <dimension ref="A1:BO60"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C2" sqref="C2:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="50" customWidth="1"/>
     <col min="8" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="50" customWidth="1"/>
@@ -18845,22 +19162,22 @@
   <sheetData>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="44" t="s">
         <v>72</v>
       </c>
@@ -18873,14 +19190,14 @@
       <c r="G5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="2:18" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="15" t="s">
         <v>77</v>
       </c>
@@ -18897,10 +19214,10 @@
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="20">
         <f>'PRE-POST'!C20</f>
         <v>2.4666666666666668</v>
@@ -18926,10 +19243,10 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="29">
         <f>'PRE-POST'!C21</f>
         <v>2.7333333333333334</v>
@@ -18965,22 +19282,22 @@
     </row>
     <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
     </row>
     <row r="12" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="44" t="s">
         <v>72</v>
       </c>
@@ -18993,14 +19310,14 @@
       <c r="G12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="63"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="2:18" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="15" t="s">
         <v>82</v>
       </c>
@@ -19021,10 +19338,10 @@
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="20">
         <v>2.6</v>
       </c>
@@ -19068,10 +19385,10 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="29">
         <v>2.7333333333333334</v>
       </c>
@@ -19118,22 +19435,22 @@
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="44" t="s">
         <v>72</v>
       </c>
@@ -19146,14 +19463,14 @@
       <c r="G19" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I19" s="63"/>
+      <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:18" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="15" t="s">
         <v>86</v>
       </c>
@@ -19174,10 +19491,10 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="20">
         <v>1.9333333333333333</v>
       </c>
@@ -19218,10 +19535,10 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="29">
         <v>1.7333333333333334</v>
       </c>
@@ -19263,22 +19580,22 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="44" t="s">
         <v>72</v>
       </c>
@@ -19291,14 +19608,14 @@
       <c r="G26" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I26" s="63"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:18" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
       <c r="D27" s="15" t="s">
         <v>91</v>
       </c>
@@ -19315,10 +19632,10 @@
       <c r="I27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="56"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="20">
         <v>2.3333333333333335</v>
       </c>
@@ -19359,10 +19676,10 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="29">
         <v>2.2000000000000002</v>
       </c>
@@ -19410,22 +19727,22 @@
     </row>
     <row r="31" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="44" t="s">
         <v>72</v>
       </c>
@@ -19438,14 +19755,14 @@
       <c r="G33" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:18" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="15" t="s">
         <v>103</v>
       </c>
@@ -19482,10 +19799,10 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="56"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="20">
         <v>2.1875</v>
       </c>
@@ -19526,10 +19843,10 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="29">
         <v>1.9375</v>
       </c>
@@ -19551,22 +19868,22 @@
     </row>
     <row r="38" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
     </row>
     <row r="40" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="44" t="s">
         <v>72</v>
       </c>
@@ -19579,14 +19896,14 @@
       <c r="G40" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="63"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="2:18" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="15" t="s">
         <v>97</v>
       </c>
@@ -19623,10 +19940,10 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="20">
         <v>2.1333333333333333</v>
       </c>
@@ -19667,10 +19984,10 @@
       </c>
     </row>
     <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="58"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="29">
         <v>2.0666666666666669</v>
       </c>
@@ -19692,22 +20009,22 @@
     </row>
     <row r="45" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="61"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
     </row>
     <row r="47" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="52"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="44" t="s">
         <v>72</v>
       </c>
@@ -19720,14 +20037,14 @@
       <c r="G47" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H47" s="62" t="s">
+      <c r="H47" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I47" s="63"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="2:18" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="15" t="s">
         <v>99</v>
       </c>
@@ -19764,10 +20081,10 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="20">
         <v>2.25</v>
       </c>
@@ -19808,10 +20125,10 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="29">
         <v>2.3125</v>
       </c>
@@ -19833,22 +20150,22 @@
     </row>
     <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="61"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="55"/>
     </row>
     <row r="54" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="52"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>72</v>
       </c>
@@ -19861,14 +20178,14 @@
       <c r="G54" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H54" s="62" t="s">
+      <c r="H54" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I54" s="63"/>
+      <c r="I54" s="52"/>
     </row>
     <row r="55" spans="2:18" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="15" t="s">
         <v>111</v>
       </c>
@@ -19885,10 +20202,10 @@
       <c r="I55" s="36"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="56"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="26">
         <v>1.9230769230769231</v>
       </c>
@@ -19929,10 +20246,10 @@
       </c>
     </row>
     <row r="57" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="58"/>
+      <c r="C57" s="59"/>
       <c r="D57" s="32">
         <v>1.9230769230769231</v>
       </c>
@@ -19980,22 +20297,22 @@
     </row>
     <row r="59" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="61"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="55"/>
     </row>
     <row r="61" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="44" t="s">
         <v>72</v>
       </c>
@@ -20008,14 +20325,14 @@
       <c r="G61" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H61" s="62" t="s">
+      <c r="H61" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I61" s="63"/>
+      <c r="I61" s="52"/>
     </row>
     <row r="62" spans="2:18" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
       <c r="D62" s="15" t="s">
         <v>116</v>
       </c>
@@ -20032,10 +20349,10 @@
       <c r="I62" s="36"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="20">
         <v>2</v>
       </c>
@@ -20076,10 +20393,10 @@
       </c>
     </row>
     <row r="64" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="58"/>
+      <c r="C64" s="59"/>
       <c r="D64" s="29">
         <v>1.8333333333333333</v>
       </c>
@@ -20127,22 +20444,22 @@
     </row>
     <row r="66" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="67" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="61"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="55"/>
     </row>
     <row r="68" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="52"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="44" t="s">
         <v>72</v>
       </c>
@@ -20155,14 +20472,14 @@
       <c r="G68" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H68" s="62" t="s">
+      <c r="H68" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I68" s="63"/>
+      <c r="I68" s="52"/>
     </row>
     <row r="69" spans="2:18" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="63"/>
       <c r="D69" s="15" t="s">
         <v>121</v>
       </c>
@@ -20199,10 +20516,10 @@
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="56"/>
+      <c r="C70" s="57"/>
       <c r="D70" s="20">
         <v>1.7142857142857142</v>
       </c>
@@ -20243,10 +20560,10 @@
       </c>
     </row>
     <row r="71" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="57" t="s">
+      <c r="B71" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="58"/>
+      <c r="C71" s="59"/>
       <c r="D71" s="29">
         <v>2</v>
       </c>
@@ -20268,22 +20585,22 @@
     </row>
     <row r="73" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="61"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
     </row>
     <row r="75" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C75" s="52"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="44" t="s">
         <v>72</v>
       </c>
@@ -20296,14 +20613,14 @@
       <c r="G75" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H75" s="62" t="s">
+      <c r="H75" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="I75" s="63"/>
+      <c r="I75" s="52"/>
     </row>
     <row r="76" spans="2:18" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="53"/>
-      <c r="C76" s="54"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="63"/>
       <c r="D76" s="15" t="s">
         <v>126</v>
       </c>
@@ -20320,10 +20637,10 @@
       <c r="I76" s="36"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="56"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="20">
         <v>1.0714285714285714</v>
       </c>
@@ -20364,10 +20681,10 @@
       </c>
     </row>
     <row r="78" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="58"/>
+      <c r="C78" s="59"/>
       <c r="D78" s="29">
         <v>1.4285714285714286</v>
       </c>
@@ -20415,22 +20732,22 @@
     </row>
     <row r="80" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="59" t="s">
+      <c r="B81" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="61"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="55"/>
     </row>
     <row r="82" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="51" t="s">
+      <c r="B82" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="52"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="44" t="s">
         <v>72</v>
       </c>
@@ -20443,14 +20760,14 @@
       <c r="G82" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H82" s="62" t="s">
+      <c r="H82" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I82" s="63"/>
+      <c r="I82" s="52"/>
     </row>
     <row r="83" spans="2:18" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="63"/>
       <c r="D83" s="15" t="s">
         <v>131</v>
       </c>
@@ -20467,10 +20784,10 @@
       <c r="I83" s="36"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="56"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="20">
         <v>1.0833333333333333</v>
       </c>
@@ -20511,10 +20828,10 @@
       </c>
     </row>
     <row r="85" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="58"/>
+      <c r="C85" s="59"/>
       <c r="D85" s="29">
         <v>1.6666666666666667</v>
       </c>
@@ -20562,22 +20879,22 @@
     </row>
     <row r="87" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="61"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="55"/>
     </row>
     <row r="89" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="51" t="s">
+      <c r="B89" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="52"/>
+      <c r="C89" s="61"/>
       <c r="D89" s="44" t="s">
         <v>72</v>
       </c>
@@ -20590,14 +20907,14 @@
       <c r="G89" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="H89" s="62" t="s">
+      <c r="H89" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="I89" s="63"/>
+      <c r="I89" s="52"/>
     </row>
     <row r="90" spans="2:18" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="15" t="s">
         <v>143</v>
       </c>
@@ -20614,10 +20931,10 @@
       <c r="I90" s="36"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="56"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="20">
         <v>1.9090909090909092</v>
       </c>
@@ -20658,10 +20975,10 @@
       </c>
     </row>
     <row r="92" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="57" t="s">
+      <c r="B92" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="58"/>
+      <c r="C92" s="59"/>
       <c r="D92" s="29">
         <v>2.3636363636363638</v>
       </c>
@@ -20709,18 +21026,43 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B89:C90"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="B75:C76"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B88:I88"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -20737,43 +21079,18 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B89:C90"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B88:I88"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B61:C62"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:G8">
     <cfRule type="cellIs" dxfId="38" priority="56" operator="between">
@@ -20960,4 +21277,532 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7B68F4-888B-4FB3-8ADC-CDF95B42A93E}">
+  <dimension ref="A1:U22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="64">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="64">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="64">
+        <v>22</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="S9" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="64">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="s">
+        <v>207</v>
+      </c>
+      <c r="N22" t="s">
+        <v>208</v>
+      </c>
+      <c r="O22" t="s">
+        <v>209</v>
+      </c>
+      <c r="P22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>211</v>
+      </c>
+      <c r="R22" t="s">
+        <v>212</v>
+      </c>
+      <c r="S22" t="s">
+        <v>213</v>
+      </c>
+      <c r="T22" t="s">
+        <v>214</v>
+      </c>
+      <c r="U22" t="e">
+        <f>CONCAT</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFFA586-A54A-4601-B6B3-B0B15725FED0}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="72"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72"/>
+      <c r="B6" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
+      <c r="B8" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="70"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72"/>
+      <c r="B12" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="74"/>
+      <c r="B13" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="69" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72"/>
+      <c r="B18" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" s="70"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="74"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="74"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="70"/>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>